--- a/Test Excel/Food Stats.xlsx
+++ b/Test Excel/Food Stats.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\USW_Year_3\Artificial Intelligence for Game Developers\CW2\Test Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79827C2F-6659-494D-853A-CA11F1B1AD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8DF498B-A5F7-4F6C-9860-3882927A2573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FF7BDBAE-2EC5-4E72-8A67-E07932F0DD0B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{FF7BDBAE-2EC5-4E72-8A67-E07932F0DD0B}"/>
   </bookViews>
   <sheets>
     <sheet name="Food" sheetId="1" r:id="rId1"/>
+    <sheet name="Herb" sheetId="2" r:id="rId2"/>
+    <sheet name="Food v2" sheetId="3" r:id="rId3"/>
+    <sheet name="Herb v2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="39">
   <si>
     <t>Generation 1</t>
   </si>
@@ -110,6 +113,48 @@
   <si>
     <t>Hide</t>
   </si>
+  <si>
+    <t>Generation 23</t>
+  </si>
+  <si>
+    <t>Generation 24</t>
+  </si>
+  <si>
+    <t>Generation 25</t>
+  </si>
+  <si>
+    <t>Generation 26</t>
+  </si>
+  <si>
+    <t>Generation 27</t>
+  </si>
+  <si>
+    <t>Generation 28</t>
+  </si>
+  <si>
+    <t>Generation 29</t>
+  </si>
+  <si>
+    <t>Generation 30</t>
+  </si>
+  <si>
+    <t>Generation 31</t>
+  </si>
+  <si>
+    <t>Generation 32</t>
+  </si>
+  <si>
+    <t>Generation 33</t>
+  </si>
+  <si>
+    <t>Herbivore</t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Generation 0</t>
+  </si>
 </sst>
 </file>
 
@@ -155,10 +200,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -262,7 +310,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Food!$B$1</c:f>
+              <c:f>Herb!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -444,7 +492,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Food!$C$1</c:f>
+              <c:f>Herb!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -626,7 +674,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Food!$D$1</c:f>
+              <c:f>Herb!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -998,7 +1046,3879 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reaction To Herbivores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Herb!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Eat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Herb!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Generation 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Generation 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Generation 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Generation 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Generation 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Generation 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Generation 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Generation 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Generation 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Generation 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Generation 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Generation 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Generation 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Generation 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Generation 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Generation 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Generation 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Generation 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Generation 33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Herb!$B$2:$B$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-983F-4CDC-9497-5664570180E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Herb!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Herb!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Generation 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Generation 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Generation 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Generation 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Generation 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Generation 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Generation 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Generation 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Generation 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Generation 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Generation 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Generation 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Generation 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Generation 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Generation 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Generation 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Generation 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Generation 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Generation 33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Herb!$C$2:$C$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-983F-4CDC-9497-5664570180E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Herb!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Hide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Herb!$A$2:$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Generation 15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Generation 16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Generation 17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Generation 18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Generation 19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Generation 20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Generation 21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Generation 22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Generation 23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Generation 24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Generation 25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Generation 26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Generation 27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Generation 28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Generation 29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Generation 30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Generation 31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Generation 32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Generation 33</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Herb!$D$2:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-983F-4CDC-9497-5664570180E4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="657268127"/>
+        <c:axId val="657274783"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="657268127"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657274783"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="657274783"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="657268127"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reaction to Food</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herb v2'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Food v2'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A367-472E-965A-8A22CABE7BD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herb v2'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Food v2'!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>72</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A367-472E-965A-8A22CABE7BD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herb v2'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Food v2'!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A367-472E-965A-8A22CABE7BD7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="695688591"/>
+        <c:axId val="695694415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="695688591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695694415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695694415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695688591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reaction to Herbivores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Herb Eat</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Food v2'!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F383-40E8-B530-0F965E4637F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Herb Fight</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Food v2'!$F$3:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>68</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F383-40E8-B530-0F965E4637F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Herb Hide</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Food v2'!$G$3:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F383-40E8-B530-0F965E4637F1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="695688591"/>
+        <c:axId val="695694415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="695688591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695694415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695694415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695688591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reaction to Food</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herb v2'!$B$1:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Eat</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Herb v2'!$B$3:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-212F-48C4-808E-FD9C5ABA39C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herb v2'!$C$1:$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Fight</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Herb v2'!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-212F-48C4-808E-FD9C5ABA39C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Herb v2'!$D$1:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Food</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hide</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Herb v2'!$D$3:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-212F-48C4-808E-FD9C5ABA39C6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="695688591"/>
+        <c:axId val="695694415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="695688591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695694415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695694415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695688591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Reaction to Herbivores</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Herb Eat</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Herb v2'!$E$3:$E$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-91C4-4ABC-AB34-B904C8B51A5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Herb Fight</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Herb v2'!$F$3:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-91C4-4ABC-AB34-B904C8B51A5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Herb Hide</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Herb v2'!$A$3:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>Generation 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Generation 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Generation 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Generation 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Generation 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Generation 5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Generation 6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Generation 7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Generation 8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Generation 9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Generation 10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Generation 11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Generation 12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Generation 13</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Herb v2'!$G$3:$G$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-91C4-4ABC-AB34-B904C8B51A5D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="695688591"/>
+        <c:axId val="695694415"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="695688591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695694415"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="695694415"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="695688591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1554,6 +5474,2586 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1587,6 +8087,207 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7735681C-7F05-4CA8-BE7E-4E86D955D087}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED47ACC3-3891-4055-8B35-43329836646E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>23813</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>109538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>185738</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{592B66A0-3649-49B5-A64F-3EE2748A0178}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>300037</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4920700-3325-44EA-9B8A-5FD98E2072DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B56ED935-8084-40D0-86A0-04F22CD9B381}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1894,8 +8595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B57D7B9-1122-41E9-993D-6BDD2BEF5A3C}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2228,4 +8929,1254 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC70F51F-8CDE-4BCF-8B19-7A3F8A5DC375}">
+  <dimension ref="A1:D34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>46</v>
+      </c>
+      <c r="C2">
+        <v>48</v>
+      </c>
+      <c r="D2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>57</v>
+      </c>
+      <c r="C3">
+        <v>46</v>
+      </c>
+      <c r="D3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>56</v>
+      </c>
+      <c r="C6">
+        <v>45</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>61</v>
+      </c>
+      <c r="C7">
+        <v>44</v>
+      </c>
+      <c r="D7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>46</v>
+      </c>
+      <c r="C8">
+        <v>42</v>
+      </c>
+      <c r="D8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="D9">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>57</v>
+      </c>
+      <c r="C10">
+        <v>55</v>
+      </c>
+      <c r="D10">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>58</v>
+      </c>
+      <c r="C11">
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>47</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>72</v>
+      </c>
+      <c r="C13">
+        <v>35</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>86</v>
+      </c>
+      <c r="C14">
+        <v>35</v>
+      </c>
+      <c r="D14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>109</v>
+      </c>
+      <c r="C15">
+        <v>53</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>120</v>
+      </c>
+      <c r="C16">
+        <v>62</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>121</v>
+      </c>
+      <c r="C17">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>126</v>
+      </c>
+      <c r="C18">
+        <v>72</v>
+      </c>
+      <c r="D18">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>87</v>
+      </c>
+      <c r="C19">
+        <v>38</v>
+      </c>
+      <c r="D19">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>109</v>
+      </c>
+      <c r="C21">
+        <v>70</v>
+      </c>
+      <c r="D21">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>75</v>
+      </c>
+      <c r="D22">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>115</v>
+      </c>
+      <c r="C23">
+        <v>78</v>
+      </c>
+      <c r="D23">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>116</v>
+      </c>
+      <c r="C24">
+        <v>79</v>
+      </c>
+      <c r="D24">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>116</v>
+      </c>
+      <c r="C25">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26">
+        <v>116</v>
+      </c>
+      <c r="C26">
+        <v>80</v>
+      </c>
+      <c r="D26">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27">
+        <v>116</v>
+      </c>
+      <c r="C27">
+        <v>80</v>
+      </c>
+      <c r="D27">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28">
+        <v>116</v>
+      </c>
+      <c r="C28">
+        <v>80</v>
+      </c>
+      <c r="D28">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29">
+        <v>116</v>
+      </c>
+      <c r="C29">
+        <v>80</v>
+      </c>
+      <c r="D29">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30">
+        <v>116</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31">
+        <v>116</v>
+      </c>
+      <c r="C31">
+        <v>80</v>
+      </c>
+      <c r="D31">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32">
+        <v>116</v>
+      </c>
+      <c r="C32">
+        <v>80</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33">
+        <v>116</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34">
+        <v>116</v>
+      </c>
+      <c r="C34">
+        <v>80</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{954C2FEE-795B-487B-B189-C975E51AB363}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>24</v>
+      </c>
+      <c r="D3">
+        <v>23</v>
+      </c>
+      <c r="E3">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>34</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>26</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>25</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>24</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>23</v>
+      </c>
+      <c r="D6">
+        <v>34</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>14</v>
+      </c>
+      <c r="G6">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>11</v>
+      </c>
+      <c r="C7">
+        <v>17</v>
+      </c>
+      <c r="D7">
+        <v>30</v>
+      </c>
+      <c r="E7">
+        <v>21</v>
+      </c>
+      <c r="F7">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>20</v>
+      </c>
+      <c r="D8">
+        <v>19</v>
+      </c>
+      <c r="E8">
+        <v>27</v>
+      </c>
+      <c r="F8">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>26</v>
+      </c>
+      <c r="E9">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>27</v>
+      </c>
+      <c r="G9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>24</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>29</v>
+      </c>
+      <c r="G10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>25</v>
+      </c>
+      <c r="D11">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>17</v>
+      </c>
+      <c r="F11">
+        <v>36</v>
+      </c>
+      <c r="G11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>9</v>
+      </c>
+      <c r="E12">
+        <v>17</v>
+      </c>
+      <c r="F12">
+        <v>36</v>
+      </c>
+      <c r="G12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>59</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+      <c r="E13">
+        <v>17</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>72</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>68</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>68</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>72</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>13</v>
+      </c>
+      <c r="F16">
+        <v>68</v>
+      </c>
+      <c r="G16">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428539EE-4E0E-4347-A45C-D3081AEEC9E4}">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="A1:G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="40.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="B1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>21</v>
+      </c>
+      <c r="E3">
+        <v>23</v>
+      </c>
+      <c r="F3">
+        <v>19</v>
+      </c>
+      <c r="G3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>23</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>18</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <v>32</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+      <c r="G5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>22</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>32</v>
+      </c>
+      <c r="E6">
+        <v>37</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>35</v>
+      </c>
+      <c r="E7">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>23</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8">
+        <v>21</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>44</v>
+      </c>
+      <c r="E8">
+        <v>52</v>
+      </c>
+      <c r="F8">
+        <v>40</v>
+      </c>
+      <c r="G8">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>69</v>
+      </c>
+      <c r="E9">
+        <v>45</v>
+      </c>
+      <c r="F9">
+        <v>48</v>
+      </c>
+      <c r="G9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>84</v>
+      </c>
+      <c r="E10">
+        <v>42</v>
+      </c>
+      <c r="F10">
+        <v>52</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>21</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>82</v>
+      </c>
+      <c r="E11">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>54</v>
+      </c>
+      <c r="G11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+      <c r="E12">
+        <v>39</v>
+      </c>
+      <c r="F12">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>41</v>
+      </c>
+      <c r="C13">
+        <v>36</v>
+      </c>
+      <c r="D13">
+        <v>43</v>
+      </c>
+      <c r="E13">
+        <v>24</v>
+      </c>
+      <c r="F13">
+        <v>42</v>
+      </c>
+      <c r="G13">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>46</v>
+      </c>
+      <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>17</v>
+      </c>
+      <c r="F14">
+        <v>47</v>
+      </c>
+      <c r="G14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>38</v>
+      </c>
+      <c r="C15">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>41</v>
+      </c>
+      <c r="E15">
+        <v>30</v>
+      </c>
+      <c r="F15">
+        <v>48</v>
+      </c>
+      <c r="G15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>39</v>
+      </c>
+      <c r="D16">
+        <v>43</v>
+      </c>
+      <c r="E16">
+        <v>36</v>
+      </c>
+      <c r="F16">
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>